--- a/TDStore/ABac2.xlsx
+++ b/TDStore/ABac2.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.WorkSpace\21.Private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10.NewPC\01.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1894461C-F938-484B-9378-F2B411EF4814}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11.12.23" sheetId="1" r:id="rId1"/>
+    <sheet name="29.12.23" sheetId="2" r:id="rId2"/>
+    <sheet name="6.1.24" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Tên</t>
   </si>
@@ -63,12 +66,48 @@
   </si>
   <si>
     <t>7410 i5/16/256</t>
+  </si>
+  <si>
+    <t>Pre 7540 i7/32/1T/P2000</t>
+  </si>
+  <si>
+    <t>Pre 7530 i7/32/1T/P1000 Touch</t>
+  </si>
+  <si>
+    <t>7400 C i5/16/512</t>
+  </si>
+  <si>
+    <t>7400 B i5/16/512</t>
+  </si>
+  <si>
+    <t>7410 C i5/16/512</t>
+  </si>
+  <si>
+    <t>7410 B i5/16/512</t>
+  </si>
+  <si>
+    <t>9420 i5/16/256</t>
+  </si>
+  <si>
+    <t>7420 i7/16/512</t>
+  </si>
+  <si>
+    <t>7280 i7/16/256</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Màn đốm</t>
+  </si>
+  <si>
+    <t>7410 k ổ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -124,11 +163,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -153,6 +272,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,10 +581,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -646,4 +795,505 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518E3E15-0D78-4F6C-B4C7-E01F0536B4E1}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="21">
+        <v>12500000</v>
+      </c>
+      <c r="C2" s="22">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21">
+        <f t="shared" ref="D2:D10" si="0">B2*C2</f>
+        <v>12500000</v>
+      </c>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="21">
+        <v>9000000</v>
+      </c>
+      <c r="C3" s="22">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21">
+        <f t="shared" si="0"/>
+        <v>9000000</v>
+      </c>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="21">
+        <v>5000000</v>
+      </c>
+      <c r="C4" s="22">
+        <v>1</v>
+      </c>
+      <c r="D4" s="21">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="21">
+        <v>6200000</v>
+      </c>
+      <c r="C5" s="22">
+        <v>6</v>
+      </c>
+      <c r="D5" s="21">
+        <f t="shared" si="0"/>
+        <v>37200000</v>
+      </c>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="21">
+        <v>6500000</v>
+      </c>
+      <c r="C6" s="22">
+        <v>1</v>
+      </c>
+      <c r="D6" s="21">
+        <f t="shared" si="0"/>
+        <v>6500000</v>
+      </c>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="21">
+        <v>7300000</v>
+      </c>
+      <c r="C7" s="22">
+        <v>2</v>
+      </c>
+      <c r="D7" s="21">
+        <f t="shared" si="0"/>
+        <v>14600000</v>
+      </c>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="21">
+        <v>12000000</v>
+      </c>
+      <c r="C8" s="22">
+        <v>1</v>
+      </c>
+      <c r="D8" s="21">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="21">
+        <v>9000000</v>
+      </c>
+      <c r="C9" s="22">
+        <v>1</v>
+      </c>
+      <c r="D9" s="21">
+        <f t="shared" si="0"/>
+        <v>9000000</v>
+      </c>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="21">
+        <v>3200000</v>
+      </c>
+      <c r="C10" s="22">
+        <v>3</v>
+      </c>
+      <c r="D10" s="21">
+        <f t="shared" si="0"/>
+        <v>9600000</v>
+      </c>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="24">
+        <f>SUM(D2:D10)</f>
+        <v>115400000</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="21">
+        <v>250000</v>
+      </c>
+      <c r="C14" s="22">
+        <v>7</v>
+      </c>
+      <c r="D14" s="21">
+        <f>B14*C14</f>
+        <v>1750000</v>
+      </c>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="21">
+        <v>200000</v>
+      </c>
+      <c r="C15" s="22">
+        <v>2</v>
+      </c>
+      <c r="D15" s="21">
+        <f>B15*C15</f>
+        <v>400000</v>
+      </c>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="29">
+        <f>SUM(D14:D15)</f>
+        <v>2150000</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34">
+        <f>D11-D17</f>
+        <v>113250000</v>
+      </c>
+      <c r="E20" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A20:B20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BCEF21-9D1E-48DB-9392-20A8F9275E7E}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="21">
+        <v>5000000</v>
+      </c>
+      <c r="C2" s="22">
+        <v>3</v>
+      </c>
+      <c r="D2" s="21">
+        <f t="shared" ref="D2:D5" si="0">B2*C2</f>
+        <v>15000000</v>
+      </c>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="21">
+        <v>6200000</v>
+      </c>
+      <c r="C3" s="22">
+        <v>6</v>
+      </c>
+      <c r="D3" s="21">
+        <f t="shared" si="0"/>
+        <v>37200000</v>
+      </c>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="21">
+        <v>6500000</v>
+      </c>
+      <c r="C4" s="22">
+        <v>2</v>
+      </c>
+      <c r="D4" s="21">
+        <f t="shared" si="0"/>
+        <v>13000000</v>
+      </c>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="21">
+        <v>7300000</v>
+      </c>
+      <c r="C5" s="22">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21">
+        <f t="shared" si="0"/>
+        <v>7300000</v>
+      </c>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="24">
+        <f>SUM(D2:D5)</f>
+        <v>72500000</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="21">
+        <v>500000</v>
+      </c>
+      <c r="C9" s="22">
+        <v>1</v>
+      </c>
+      <c r="D9" s="21">
+        <f>B9*C9</f>
+        <v>500000</v>
+      </c>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="29">
+        <f>SUM(D9:D10)</f>
+        <v>500000</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34">
+        <f>D6-D12</f>
+        <v>72000000</v>
+      </c>
+      <c r="E15" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A15:B15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TDStore/ABac2.xlsx
+++ b/TDStore/ABac2.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10.NewPC\01.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1894461C-F938-484B-9378-F2B411EF4814}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67AC7F3-E88A-43E6-95F0-3414769E38F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11.12.23" sheetId="1" r:id="rId1"/>
     <sheet name="29.12.23" sheetId="2" r:id="rId2"/>
     <sheet name="6.1.24" sheetId="3" r:id="rId3"/>
+    <sheet name="28.1.24" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
   <si>
     <t>Tên</t>
   </si>
@@ -102,6 +103,9 @@
   </si>
   <si>
     <t>7410 k ổ</t>
+  </si>
+  <si>
+    <t>7400 Bios</t>
   </si>
 </sst>
 </file>
@@ -247,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -269,9 +273,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -281,27 +282,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,10 +776,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="15"/>
+      <c r="B19" s="27"/>
       <c r="D19" s="13">
         <f>D11-D16</f>
         <v>66000000</v>
@@ -814,274 +812,258 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="19"/>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="8">
         <v>12500000</v>
       </c>
-      <c r="C2" s="22">
-        <v>1</v>
-      </c>
-      <c r="D2" s="21">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
         <f t="shared" ref="D2:D10" si="0">B2*C2</f>
         <v>12500000</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="8">
         <v>9000000</v>
       </c>
-      <c r="C3" s="22">
-        <v>1</v>
-      </c>
-      <c r="D3" s="21">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
         <f t="shared" si="0"/>
         <v>9000000</v>
       </c>
-      <c r="E3" s="23"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="8">
         <v>5000000</v>
       </c>
-      <c r="C4" s="22">
-        <v>1</v>
-      </c>
-      <c r="D4" s="21">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
         <f t="shared" si="0"/>
         <v>5000000</v>
       </c>
-      <c r="E4" s="23"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="8">
         <v>6200000</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="8">
         <f t="shared" si="0"/>
         <v>37200000</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="8">
         <v>6500000</v>
       </c>
-      <c r="C6" s="22">
-        <v>1</v>
-      </c>
-      <c r="D6" s="21">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
         <f t="shared" si="0"/>
         <v>6500000</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="8">
         <v>7300000</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="8">
         <f t="shared" si="0"/>
         <v>14600000</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="8">
         <v>12000000</v>
       </c>
-      <c r="C8" s="22">
-        <v>1</v>
-      </c>
-      <c r="D8" s="21">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
         <v>12000000</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="8">
         <v>9000000</v>
       </c>
-      <c r="C9" s="22">
-        <v>1</v>
-      </c>
-      <c r="D9" s="21">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
         <f t="shared" si="0"/>
         <v>9000000</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="8">
         <v>3200000</v>
       </c>
-      <c r="C10" s="22">
-        <v>3</v>
-      </c>
-      <c r="D10" s="21">
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8">
         <f t="shared" si="0"/>
         <v>9600000</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="24">
+      <c r="A11" s="19"/>
+      <c r="D11" s="10">
         <f>SUM(D2:D10)</f>
         <v>115400000</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="23"/>
+      <c r="A12" s="19"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="28" t="s">
+      <c r="B13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="23"/>
+      <c r="D13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="8">
         <v>250000</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14">
         <v>7</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="8">
         <f>B14*C14</f>
         <v>1750000</v>
       </c>
-      <c r="E14" s="23"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="8">
         <v>200000</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="8">
         <f>B15*C15</f>
         <v>400000</v>
       </c>
-      <c r="E15" s="23"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="23"/>
+      <c r="A16" s="19"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="29">
+      <c r="A17" s="19"/>
+      <c r="D17" s="11">
         <f>SUM(D14:D15)</f>
         <v>2150000</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="23"/>
+      <c r="A18" s="19"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="23"/>
+      <c r="A19" s="19"/>
+      <c r="E19" s="20"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34">
+      <c r="B20" s="29"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25">
         <f>D11-D17</f>
         <v>113250000</v>
       </c>
-      <c r="E20" s="35"/>
+      <c r="E20" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1096,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BCEF21-9D1E-48DB-9392-20A8F9275E7E}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,185 +1091,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="19"/>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="8">
         <v>5000000</v>
       </c>
-      <c r="C2" s="22">
-        <v>3</v>
-      </c>
-      <c r="D2" s="21">
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8">
         <f t="shared" ref="D2:D5" si="0">B2*C2</f>
         <v>15000000</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="8">
         <v>6200000</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3">
         <v>6</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="8">
         <f t="shared" si="0"/>
         <v>37200000</v>
       </c>
-      <c r="E3" s="23"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="8">
         <v>6500000</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="8">
         <f t="shared" si="0"/>
         <v>13000000</v>
       </c>
-      <c r="E4" s="23"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="8">
         <v>7300000</v>
       </c>
-      <c r="C5" s="22">
-        <v>1</v>
-      </c>
-      <c r="D5" s="21">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
         <f t="shared" si="0"/>
         <v>7300000</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="24">
+      <c r="A6" s="19"/>
+      <c r="D6" s="10">
         <f>SUM(D2:D5)</f>
         <v>72500000</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="23"/>
+      <c r="A7" s="19"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="28" t="s">
+      <c r="B8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="23"/>
+      <c r="D8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="8">
         <v>500000</v>
       </c>
-      <c r="C9" s="22">
-        <v>1</v>
-      </c>
-      <c r="D9" s="21">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
         <f>B9*C9</f>
         <v>500000</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="23"/>
+      <c r="A10" s="19"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="23"/>
+      <c r="A11" s="19"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="29">
+      <c r="A12" s="19"/>
+      <c r="D12" s="11">
         <f>SUM(D9:D10)</f>
         <v>500000</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="23"/>
+      <c r="A13" s="19"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="23"/>
+      <c r="A14" s="19"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34">
+      <c r="B15" s="29"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25">
         <f>D6-D12</f>
         <v>72000000</v>
       </c>
-      <c r="E15" s="35"/>
+      <c r="E15" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1296,4 +1259,175 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F92984B-B13F-4671-BC36-F2DAB26D9586}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8">
+        <v>6200000</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8">
+        <f t="shared" ref="D2:D4" si="0">B2*C2</f>
+        <v>12400000</v>
+      </c>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="8">
+        <v>6500000</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8">
+        <f t="shared" si="0"/>
+        <v>13000000</v>
+      </c>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="8">
+        <v>7300000</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" si="0"/>
+        <v>29200000</v>
+      </c>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="D5" s="10">
+        <f>SUM(D2:D4)</f>
+        <v>54600000</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="8">
+        <v>300000</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <f>C8*B8</f>
+        <v>300000</v>
+      </c>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="D11" s="11">
+        <f>SUM(D8:D9)</f>
+        <v>300000</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25">
+        <f>D5-D11</f>
+        <v>54300000</v>
+      </c>
+      <c r="E14" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TDStore/ABac2.xlsx
+++ b/TDStore/ABac2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10.NewPC\01.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67AC7F3-E88A-43E6-95F0-3414769E38F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8230664-6FB3-49A6-B066-7B6364863C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4635" yWindow="2220" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11.12.23" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
   <si>
     <t>Tên</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>7400 Bios</t>
+  </si>
+  <si>
+    <t>Đã trả</t>
+  </si>
+  <si>
+    <t>Tản 7540</t>
+  </si>
+  <si>
+    <t>Màn</t>
+  </si>
+  <si>
+    <t>Đã xong</t>
   </si>
 </sst>
 </file>
@@ -121,7 +133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +167,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -300,6 +318,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,6 +808,11 @@
       </c>
       <c r="E19" s="14"/>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A19:B19"/>
@@ -797,10 +824,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518E3E15-0D78-4F6C-B4C7-E01F0536B4E1}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,42 +1059,58 @@
       <c r="E15" s="20"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="8">
+        <v>50000000</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
+        <f>B16*C16</f>
+        <v>50000000</v>
+      </c>
       <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
-      <c r="D17" s="11">
-        <f>SUM(D14:D15)</f>
-        <v>2150000</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
-      <c r="E18" s="20"/>
+      <c r="D18" s="11">
+        <f>SUM(D14:D16)</f>
+        <v>52150000</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="E19" s="20"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25">
-        <f>D11-D17</f>
-        <v>113250000</v>
-      </c>
-      <c r="E20" s="26"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25">
+        <f>D11-D18</f>
+        <v>63250000</v>
+      </c>
+      <c r="E21" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1076,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BCEF21-9D1E-48DB-9392-20A8F9275E7E}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,7 +1159,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="8">
-        <f t="shared" ref="D2:D5" si="0">B2*C2</f>
+        <f t="shared" ref="D2:D6" si="0">B2*C2</f>
         <v>15000000</v>
       </c>
       <c r="E2" s="20"/>
@@ -1170,91 +1213,138 @@
       <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="D6" s="10">
-        <f>SUM(D2:D5)</f>
-        <v>72500000</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>3</v>
-      </c>
+      <c r="A6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="8">
+        <v>450000</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" si="0"/>
+        <v>450000</v>
+      </c>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="30"/>
       <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="D8" s="10">
+        <f>SUM(D2:D6)</f>
+        <v>72950000</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="D10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B11" s="8">
         <v>500000</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8">
-        <f>B9*C9</f>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <f>B11*C11</f>
         <v>500000</v>
       </c>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
       <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="D12" s="11">
-        <f>SUM(D9:D10)</f>
+      <c r="A12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="8">
+        <v>250000</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" ref="D12:D13" si="1">B12*C12</f>
         <v>500000</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="8">
+        <v>200000</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
       <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="D15" s="11">
+        <f>SUM(D11:D12)</f>
+        <v>1000000</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25">
-        <f>D6-D12</f>
-        <v>72000000</v>
-      </c>
-      <c r="E15" s="26"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25">
+        <f>D8-D15</f>
+        <v>71950000</v>
+      </c>
+      <c r="E18" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1265,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F92984B-B13F-4671-BC36-F2DAB26D9586}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,18 +1476,42 @@
       <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="8">
+        <v>250000</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" ref="D9:D10" si="1">C9*B9</f>
+        <v>250000</v>
+      </c>
       <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="8">
+        <v>200000</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
       <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="D11" s="11">
         <f>SUM(D8:D9)</f>
-        <v>300000</v>
+        <v>550000</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>3</v>
@@ -1419,7 +1533,7 @@
       <c r="C14" s="24"/>
       <c r="D14" s="25">
         <f>D5-D11</f>
-        <v>54300000</v>
+        <v>54050000</v>
       </c>
       <c r="E14" s="26"/>
     </row>

--- a/TDStore/ABac2.xlsx
+++ b/TDStore/ABac2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10.NewPC\01.TDStore\04.Private\TDStore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8230664-6FB3-49A6-B066-7B6364863C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA4C474-D325-4DDC-BFE6-6AB4E4F3EDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="2220" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11.12.23" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,27 @@
     <sheet name="6.1.24" sheetId="3" r:id="rId3"/>
     <sheet name="28.1.24" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
   <si>
     <t>Tên</t>
   </si>
@@ -118,6 +128,15 @@
   </si>
   <si>
     <t>Đã xong</t>
+  </si>
+  <si>
+    <t>Chuyển ngày 5.2.24</t>
+  </si>
+  <si>
+    <t>Chuyển sang công nợ ngày 6.1.24</t>
+  </si>
+  <si>
+    <t>Đã trả ngày 5.2.24</t>
   </si>
 </sst>
 </file>
@@ -269,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -309,6 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,10 +338,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,15 +624,15 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -630,7 +646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>7490</v>
       </c>
@@ -645,7 +661,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -660,7 +676,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>9305</v>
       </c>
@@ -675,7 +691,7 @@
         <v>8500000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -690,7 +706,7 @@
         <v>18500000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -705,7 +721,7 @@
         <v>5800000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -720,7 +736,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -735,7 +751,7 @@
         <v>6200000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -750,7 +766,7 @@
         <v>6700000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D11" s="10">
         <f>SUM(D2:D9)</f>
         <v>66200000</v>
@@ -759,7 +775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -773,7 +789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -788,7 +804,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D16" s="11">
         <f>SUM(D14:D14)</f>
         <v>200000</v>
@@ -797,19 +813,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="27"/>
+      <c r="B19" s="28"/>
       <c r="D19" s="13">
         <f>D11-D16</f>
         <v>66000000</v>
       </c>
       <c r="E19" s="14"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="31" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D21" s="27" t="s">
         <v>29</v>
       </c>
     </row>
@@ -824,21 +840,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518E3E15-0D78-4F6C-B4C7-E01F0536B4E1}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="31.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -853,7 +869,7 @@
       </c>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
         <v>13</v>
       </c>
@@ -869,7 +885,7 @@
       </c>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
@@ -885,7 +901,7 @@
       </c>
       <c r="E3" s="20"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="19" t="s">
         <v>15</v>
       </c>
@@ -901,7 +917,7 @@
       </c>
       <c r="E4" s="20"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="19" t="s">
         <v>16</v>
       </c>
@@ -917,7 +933,7 @@
       </c>
       <c r="E5" s="20"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="19" t="s">
         <v>17</v>
       </c>
@@ -933,7 +949,7 @@
       </c>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="19" t="s">
         <v>18</v>
       </c>
@@ -949,7 +965,7 @@
       </c>
       <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="19" t="s">
         <v>19</v>
       </c>
@@ -965,7 +981,7 @@
       </c>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="19" t="s">
         <v>20</v>
       </c>
@@ -981,7 +997,7 @@
       </c>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="19" t="s">
         <v>21</v>
       </c>
@@ -997,7 +1013,7 @@
       </c>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="19"/>
       <c r="D11" s="10">
         <f>SUM(D2:D10)</f>
@@ -1007,11 +1023,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="19"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="22" t="s">
         <v>4</v>
       </c>
@@ -1026,7 +1042,7 @@
       </c>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="19" t="s">
         <v>22</v>
       </c>
@@ -1042,7 +1058,7 @@
       </c>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="19" t="s">
         <v>23</v>
       </c>
@@ -1058,7 +1074,7 @@
       </c>
       <c r="E15" s="20"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="19" t="s">
         <v>26</v>
       </c>
@@ -1074,39 +1090,56 @@
       </c>
       <c r="E16" s="20"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="E17" s="20"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="8">
+        <v>70000000</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
+        <f>B17*C17</f>
+        <v>70000000</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="19"/>
       <c r="D18" s="11">
-        <f>SUM(D14:D16)</f>
-        <v>52150000</v>
+        <f>SUM(D14:D17)</f>
+        <v>122150000</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="19"/>
       <c r="E19" s="20"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="19"/>
       <c r="E20" s="20"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+    <row r="21" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="24"/>
       <c r="D21" s="25">
         <f>D11-D18</f>
-        <v>63250000</v>
-      </c>
-      <c r="E21" s="26"/>
+        <v>-6750000</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1121,19 +1154,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BCEF21-9D1E-48DB-9392-20A8F9275E7E}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="31.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1181,7 @@
       </c>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
@@ -1164,7 +1197,7 @@
       </c>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
         <v>16</v>
       </c>
@@ -1180,7 +1213,7 @@
       </c>
       <c r="E3" s="20"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="19" t="s">
         <v>17</v>
       </c>
@@ -1196,7 +1229,7 @@
       </c>
       <c r="E4" s="20"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="19" t="s">
         <v>18</v>
       </c>
@@ -1212,7 +1245,7 @@
       </c>
       <c r="E5" s="20"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="19" t="s">
         <v>27</v>
       </c>
@@ -1228,11 +1261,10 @@
       </c>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D8" s="10">
         <f>SUM(D2:D6)</f>
         <v>72950000</v>
@@ -1241,11 +1273,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="19"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="22" t="s">
         <v>4</v>
       </c>
@@ -1260,7 +1292,7 @@
       </c>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="19" t="s">
         <v>24</v>
       </c>
@@ -1276,7 +1308,7 @@
       </c>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="19" t="s">
         <v>22</v>
       </c>
@@ -1287,12 +1319,12 @@
         <v>2</v>
       </c>
       <c r="D12" s="8">
-        <f t="shared" ref="D12:D13" si="1">B12*C12</f>
+        <f t="shared" ref="D12:D14" si="1">B12*C12</f>
         <v>500000</v>
       </c>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="19" t="s">
         <v>28</v>
       </c>
@@ -1308,37 +1340,49 @@
       </c>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="8">
+        <v>6750000</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="1"/>
+        <v>6750000</v>
+      </c>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="19"/>
       <c r="D15" s="11">
-        <f>SUM(D11:D12)</f>
-        <v>1000000</v>
+        <f>SUM(D11:D14)</f>
+        <v>7950000</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="19"/>
       <c r="E16" s="20"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="19"/>
       <c r="E17" s="20"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="24"/>
       <c r="D18" s="25">
         <f>D8-D15</f>
-        <v>71950000</v>
+        <v>65000000</v>
       </c>
       <c r="E18" s="26"/>
     </row>
@@ -1359,15 +1403,15 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="31.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1382,7 +1426,7 @@
       </c>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
         <v>16</v>
       </c>
@@ -1398,7 +1442,7 @@
       </c>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
         <v>17</v>
       </c>
@@ -1414,7 +1458,7 @@
       </c>
       <c r="E3" s="20"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="19" t="s">
         <v>18</v>
       </c>
@@ -1430,7 +1474,7 @@
       </c>
       <c r="E4" s="20"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="19"/>
       <c r="D5" s="10">
         <f>SUM(D2:D4)</f>
@@ -1440,11 +1484,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="19"/>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="22" t="s">
         <v>4</v>
       </c>
@@ -1459,7 +1503,7 @@
       </c>
       <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="19" t="s">
         <v>25</v>
       </c>
@@ -1475,7 +1519,7 @@
       </c>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="19" t="s">
         <v>22</v>
       </c>
@@ -1491,7 +1535,7 @@
       </c>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="19" t="s">
         <v>28</v>
       </c>
@@ -1507,7 +1551,7 @@
       </c>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="19"/>
       <c r="D11" s="11">
         <f>SUM(D8:D9)</f>
@@ -1517,19 +1561,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="19"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="19"/>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="24"/>
       <c r="D14" s="25">
         <f>D5-D11</f>

--- a/TDStore/ABac2.xlsx
+++ b/TDStore/ABac2.xlsx
@@ -5,40 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.Private\TDStore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10.NewPC\01.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA4C474-D325-4DDC-BFE6-6AB4E4F3EDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56992DE8-D787-4EA2-BD65-CFB14ECA551B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11.12.23" sheetId="1" r:id="rId1"/>
     <sheet name="29.12.23" sheetId="2" r:id="rId2"/>
     <sheet name="6.1.24" sheetId="3" r:id="rId3"/>
     <sheet name="28.1.24" sheetId="4" r:id="rId4"/>
+    <sheet name="20.2.24" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
   <si>
     <t>Tên</t>
   </si>
@@ -137,6 +128,21 @@
   </si>
   <si>
     <t>Đã trả ngày 5.2.24</t>
+  </si>
+  <si>
+    <t>7390 B i5/16/256</t>
+  </si>
+  <si>
+    <t>Ngay 29.12.23</t>
+  </si>
+  <si>
+    <t>Ngày 6.1.24</t>
+  </si>
+  <si>
+    <t>Ngày 28.1.24</t>
+  </si>
+  <si>
+    <t>Ngày 20.2.24</t>
   </si>
 </sst>
 </file>
@@ -315,7 +321,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -338,6 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,15 +630,15 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.1328125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -646,7 +652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>7490</v>
       </c>
@@ -661,7 +667,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -676,7 +682,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>9305</v>
       </c>
@@ -691,7 +697,7 @@
         <v>8500000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -706,7 +712,7 @@
         <v>18500000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -721,7 +727,7 @@
         <v>5800000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -736,7 +742,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -751,7 +757,7 @@
         <v>6200000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -766,7 +772,7 @@
         <v>6700000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" s="10">
         <f>SUM(D2:D9)</f>
         <v>66200000</v>
@@ -775,7 +781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -789,7 +795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -804,7 +810,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D16" s="11">
         <f>SUM(D14:D14)</f>
         <v>200000</v>
@@ -813,19 +819,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="28" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="28"/>
+      <c r="B19" s="27"/>
       <c r="D19" s="13">
         <f>D11-D16</f>
         <v>66000000</v>
       </c>
       <c r="E19" s="14"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D21" s="27" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="26" t="s">
         <v>29</v>
       </c>
     </row>
@@ -843,18 +849,19 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection sqref="A1:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.1328125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -867,10 +874,12 @@
       <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="19" t="s">
+      <c r="E1" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="8">
@@ -883,10 +892,10 @@
         <f t="shared" ref="D2:D10" si="0">B2*C2</f>
         <v>12500000</v>
       </c>
-      <c r="E2" s="20"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="19" t="s">
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="8">
@@ -899,10 +908,10 @@
         <f t="shared" si="0"/>
         <v>9000000</v>
       </c>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="19" t="s">
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="8">
@@ -915,10 +924,10 @@
         <f t="shared" si="0"/>
         <v>5000000</v>
       </c>
-      <c r="E4" s="20"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="19" t="s">
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="8">
@@ -931,10 +940,10 @@
         <f t="shared" si="0"/>
         <v>37200000</v>
       </c>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="19" t="s">
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="8">
@@ -947,10 +956,10 @@
         <f t="shared" si="0"/>
         <v>6500000</v>
       </c>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="19" t="s">
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="8">
@@ -963,10 +972,10 @@
         <f t="shared" si="0"/>
         <v>14600000</v>
       </c>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="19" t="s">
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="8">
@@ -979,10 +988,10 @@
         <f t="shared" si="0"/>
         <v>12000000</v>
       </c>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="19" t="s">
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="8">
@@ -995,10 +1004,10 @@
         <f t="shared" si="0"/>
         <v>9000000</v>
       </c>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="19" t="s">
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="8">
@@ -1011,24 +1020,24 @@
         <f t="shared" si="0"/>
         <v>9600000</v>
       </c>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="19"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
       <c r="D11" s="10">
         <f>SUM(D2:D10)</f>
         <v>115400000</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="19"/>
-      <c r="E12" s="20"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="22" t="s">
+      <c r="E11" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -1040,10 +1049,10 @@
       <c r="D13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="19" t="s">
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="8">
@@ -1056,10 +1065,10 @@
         <f>B14*C14</f>
         <v>1750000</v>
       </c>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="19" t="s">
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="8">
@@ -1072,10 +1081,10 @@
         <f>B15*C15</f>
         <v>400000</v>
       </c>
-      <c r="E15" s="20"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="19" t="s">
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="8">
@@ -1088,10 +1097,10 @@
         <f>B16*C16</f>
         <v>50000000</v>
       </c>
-      <c r="E16" s="20"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="19" t="s">
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="8">
@@ -1104,39 +1113,39 @@
         <f>B17*C17</f>
         <v>70000000</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="19"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
       <c r="D18" s="11">
         <f>SUM(D14:D17)</f>
         <v>122150000</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="19"/>
-      <c r="E19" s="20"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="19"/>
-      <c r="E20" s="20"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="29" t="s">
+      <c r="E18" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25">
+      <c r="B21" s="29"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24">
         <f>D11-D18</f>
         <v>-6750000</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="25" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="8"/>
@@ -1154,19 +1163,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BCEF21-9D1E-48DB-9392-20A8F9275E7E}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.1328125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1179,10 +1189,12 @@
       <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="19" t="s">
+      <c r="E1" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="8">
@@ -1195,10 +1207,10 @@
         <f t="shared" ref="D2:D6" si="0">B2*C2</f>
         <v>15000000</v>
       </c>
-      <c r="E2" s="20"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="19" t="s">
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="8">
@@ -1211,10 +1223,10 @@
         <f t="shared" si="0"/>
         <v>37200000</v>
       </c>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="19" t="s">
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="8">
@@ -1227,10 +1239,10 @@
         <f t="shared" si="0"/>
         <v>13000000</v>
       </c>
-      <c r="E4" s="20"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="19" t="s">
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="8">
@@ -1243,10 +1255,10 @@
         <f t="shared" si="0"/>
         <v>7300000</v>
       </c>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="19" t="s">
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="8">
@@ -1259,26 +1271,26 @@
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" s="10">
         <f>SUM(D2:D6)</f>
         <v>72950000</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="19"/>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="22" t="s">
+      <c r="E8" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -1290,10 +1302,10 @@
       <c r="D10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="19" t="s">
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="8">
@@ -1306,10 +1318,10 @@
         <f>B11*C11</f>
         <v>500000</v>
       </c>
-      <c r="E11" s="20"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="19" t="s">
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="8">
@@ -1322,10 +1334,10 @@
         <f t="shared" ref="D12:D14" si="1">B12*C12</f>
         <v>500000</v>
       </c>
-      <c r="E12" s="20"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="19" t="s">
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="8">
@@ -1338,10 +1350,10 @@
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="19" t="s">
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="8">
@@ -1354,37 +1366,37 @@
         <f t="shared" si="1"/>
         <v>6750000</v>
       </c>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="19"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
       <c r="D15" s="11">
         <f>SUM(D11:D14)</f>
         <v>7950000</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="19"/>
-      <c r="E16" s="20"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="19"/>
-      <c r="E17" s="20"/>
-    </row>
-    <row r="18" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="29" t="s">
+      <c r="E15" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25">
+      <c r="B18" s="29"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24">
         <f>D8-D15</f>
         <v>65000000</v>
       </c>
-      <c r="E18" s="26"/>
+      <c r="E18" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1400,18 +1412,19 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.1328125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1424,10 +1437,12 @@
       <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="19" t="s">
+      <c r="E1" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="8">
@@ -1440,10 +1455,10 @@
         <f t="shared" ref="D2:D4" si="0">B2*C2</f>
         <v>12400000</v>
       </c>
-      <c r="E2" s="20"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="19" t="s">
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="8">
@@ -1456,10 +1471,10 @@
         <f t="shared" si="0"/>
         <v>13000000</v>
       </c>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="19" t="s">
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="8">
@@ -1472,24 +1487,24 @@
         <f t="shared" si="0"/>
         <v>29200000</v>
       </c>
-      <c r="E4" s="20"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="19"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
       <c r="D5" s="10">
         <f>SUM(D2:D4)</f>
         <v>54600000</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="19"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="22" t="s">
+      <c r="E5" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -1501,10 +1516,10 @@
       <c r="D7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="19" t="s">
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="8">
@@ -1517,10 +1532,10 @@
         <f>C8*B8</f>
         <v>300000</v>
       </c>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="19" t="s">
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="8">
@@ -1533,10 +1548,10 @@
         <f t="shared" ref="D9:D10" si="1">C9*B9</f>
         <v>250000</v>
       </c>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="19" t="s">
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="8">
@@ -1549,37 +1564,175 @@
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="19"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
       <c r="D11" s="11">
         <f>SUM(D8:D9)</f>
         <v>550000</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="19"/>
-      <c r="E12" s="20"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="19"/>
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="29" t="s">
+      <c r="E11" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25">
+      <c r="B14" s="29"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24">
         <f>D5-D11</f>
         <v>54050000</v>
       </c>
-      <c r="E14" s="26"/>
+      <c r="E14" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABE387F-77DA-466B-85F9-C8A9BC91CF5C}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="8">
+        <v>4500000</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8">
+        <f t="shared" ref="D2:D4" si="0">B2*C2</f>
+        <v>9000000</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="D5" s="10">
+        <f>SUM(D2:D4)</f>
+        <v>9000000</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="D11" s="11">
+        <f>SUM(D8:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24">
+        <f>D5-D11</f>
+        <v>9000000</v>
+      </c>
+      <c r="E14" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/TDStore/ABac2.xlsx
+++ b/TDStore/ABac2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10.NewPC\01.TDStore\04.Private\TDStore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56992DE8-D787-4EA2-BD65-CFB14ECA551B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C58865B-4227-4712-8AF6-86A407E49C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11.12.23" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
   <si>
     <t>Tên</t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t>Ngày 20.2.24</t>
+  </si>
+  <si>
+    <t>7540 I7/32/1T/T2000</t>
+  </si>
+  <si>
+    <t>7560/I9/32/1T/RTX3000/4K</t>
+  </si>
+  <si>
+    <t>Đã trả ngày 23.2.24</t>
   </si>
 </sst>
 </file>
@@ -334,6 +343,7 @@
     <xf numFmtId="3" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -343,7 +353,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,15 +639,15 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -652,7 +661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>7490</v>
       </c>
@@ -667,7 +676,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -682,7 +691,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>9305</v>
       </c>
@@ -697,7 +706,7 @@
         <v>8500000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -712,7 +721,7 @@
         <v>18500000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -727,7 +736,7 @@
         <v>5800000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -742,7 +751,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -757,7 +766,7 @@
         <v>6200000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -772,7 +781,7 @@
         <v>6700000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D11" s="10">
         <f>SUM(D2:D9)</f>
         <v>66200000</v>
@@ -781,7 +790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -795,7 +804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -810,7 +819,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D16" s="11">
         <f>SUM(D14:D14)</f>
         <v>200000</v>
@@ -819,18 +828,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="27"/>
+      <c r="B19" s="28"/>
       <c r="D19" s="13">
         <f>D11-D16</f>
         <v>66000000</v>
       </c>
       <c r="E19" s="14"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D21" s="26" t="s">
         <v>29</v>
       </c>
@@ -852,16 +861,16 @@
       <selection sqref="A1:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -874,11 +883,11 @@
       <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
         <v>13</v>
       </c>
@@ -894,7 +903,7 @@
       </c>
       <c r="E2" s="19"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
@@ -910,7 +919,7 @@
       </c>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
@@ -926,7 +935,7 @@
       </c>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
         <v>16</v>
       </c>
@@ -942,7 +951,7 @@
       </c>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
@@ -958,7 +967,7 @@
       </c>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
@@ -974,7 +983,7 @@
       </c>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="18" t="s">
         <v>19</v>
       </c>
@@ -990,7 +999,7 @@
       </c>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="18" t="s">
         <v>20</v>
       </c>
@@ -1006,7 +1015,7 @@
       </c>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="18" t="s">
         <v>21</v>
       </c>
@@ -1022,7 +1031,7 @@
       </c>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="18"/>
       <c r="D11" s="10">
         <f>SUM(D2:D10)</f>
@@ -1032,11 +1041,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="18"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="21" t="s">
         <v>4</v>
       </c>
@@ -1051,7 +1060,7 @@
       </c>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="18" t="s">
         <v>22</v>
       </c>
@@ -1067,7 +1076,7 @@
       </c>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="18" t="s">
         <v>23</v>
       </c>
@@ -1083,7 +1092,7 @@
       </c>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="18" t="s">
         <v>26</v>
       </c>
@@ -1099,7 +1108,7 @@
       </c>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="18" t="s">
         <v>26</v>
       </c>
@@ -1117,7 +1126,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="18"/>
       <c r="D18" s="11">
         <f>SUM(D14:D17)</f>
@@ -1127,19 +1136,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="18"/>
       <c r="E19" s="19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="18"/>
       <c r="E20" s="19"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+    <row r="21" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="23"/>
       <c r="D21" s="24">
         <f>D11-D18</f>
@@ -1161,22 +1170,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BCEF21-9D1E-48DB-9392-20A8F9275E7E}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1189,11 +1198,11 @@
       <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
         <v>15</v>
       </c>
@@ -1209,7 +1218,7 @@
       </c>
       <c r="E2" s="19"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
@@ -1225,7 +1234,7 @@
       </c>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
@@ -1241,7 +1250,7 @@
       </c>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
         <v>18</v>
       </c>
@@ -1257,7 +1266,7 @@
       </c>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
         <v>27</v>
       </c>
@@ -1273,10 +1282,10 @@
       </c>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D8" s="10">
         <f>SUM(D2:D6)</f>
         <v>72950000</v>
@@ -1285,11 +1294,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="18"/>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="21" t="s">
         <v>4</v>
       </c>
@@ -1304,7 +1313,7 @@
       </c>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="18" t="s">
         <v>24</v>
       </c>
@@ -1320,7 +1329,7 @@
       </c>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="18" t="s">
         <v>22</v>
       </c>
@@ -1331,12 +1340,12 @@
         <v>2</v>
       </c>
       <c r="D12" s="8">
-        <f t="shared" ref="D12:D14" si="1">B12*C12</f>
+        <f t="shared" ref="D12:D15" si="1">B12*C12</f>
         <v>500000</v>
       </c>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="18" t="s">
         <v>28</v>
       </c>
@@ -1352,7 +1361,7 @@
       </c>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="18" t="s">
         <v>32</v>
       </c>
@@ -1368,39 +1377,55 @@
       </c>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="D15" s="11">
-        <f>SUM(D11:D14)</f>
-        <v>7950000</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="8">
+        <v>50000000</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="1"/>
+        <v>50000000</v>
+      </c>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="18"/>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="11">
+        <f>SUM(D11:D15)</f>
+        <v>57950000</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="18"/>
       <c r="E17" s="19"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="18"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24">
-        <f>D8-D15</f>
-        <v>65000000</v>
-      </c>
-      <c r="E18" s="25"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24">
+        <f>D8-D16</f>
+        <v>15000000</v>
+      </c>
+      <c r="E19" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1415,16 +1440,16 @@
       <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1437,11 +1462,11 @@
       <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
@@ -1457,7 +1482,7 @@
       </c>
       <c r="E2" s="19"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
@@ -1473,7 +1498,7 @@
       </c>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -1489,7 +1514,7 @@
       </c>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="18"/>
       <c r="D5" s="10">
         <f>SUM(D2:D4)</f>
@@ -1499,11 +1524,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="18"/>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="21" t="s">
         <v>4</v>
       </c>
@@ -1518,7 +1543,7 @@
       </c>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="18" t="s">
         <v>25</v>
       </c>
@@ -1534,7 +1559,7 @@
       </c>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="18" t="s">
         <v>22</v>
       </c>
@@ -1550,7 +1575,7 @@
       </c>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="18" t="s">
         <v>28</v>
       </c>
@@ -1566,7 +1591,7 @@
       </c>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="18"/>
       <c r="D11" s="11">
         <f>SUM(D8:D9)</f>
@@ -1576,19 +1601,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="18"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="18"/>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="23"/>
       <c r="D14" s="24">
         <f>D5-D11</f>
@@ -1610,19 +1635,19 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1635,11 +1660,11 @@
       <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
         <v>33</v>
       </c>
@@ -1655,29 +1680,53 @@
       </c>
       <c r="E2" s="19"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="8">
+        <v>12000000</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <f t="shared" si="0"/>
+        <v>12000000</v>
+      </c>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="8">
+        <v>21000000</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" si="0"/>
+        <v>21000000</v>
+      </c>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="18"/>
       <c r="D5" s="10">
         <f>SUM(D2:D4)</f>
-        <v>9000000</v>
+        <v>42000000</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="18"/>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="21" t="s">
         <v>4</v>
       </c>
@@ -1692,19 +1741,19 @@
       </c>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="18"/>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="18"/>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="18"/>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="18"/>
       <c r="D11" s="11">
         <f>SUM(D8:D9)</f>
@@ -1714,23 +1763,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="18"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="18"/>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="23"/>
       <c r="D14" s="24">
         <f>D5-D11</f>
-        <v>9000000</v>
+        <v>42000000</v>
       </c>
       <c r="E14" s="25"/>
     </row>

--- a/TDStore/ABac2.xlsx
+++ b/TDStore/ABac2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.Private\TDStore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10.NewPC\01.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C58865B-4227-4712-8AF6-86A407E49C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E620B34-4E78-4AAA-BFEF-1358E4C1AC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="3330" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11.12.23" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="6.1.24" sheetId="3" r:id="rId3"/>
     <sheet name="28.1.24" sheetId="4" r:id="rId4"/>
     <sheet name="20.2.24" sheetId="5" r:id="rId5"/>
+    <sheet name="17.3.24" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="46">
   <si>
     <t>Tên</t>
   </si>
@@ -152,6 +153,21 @@
   </si>
   <si>
     <t>Đã trả ngày 23.2.24</t>
+  </si>
+  <si>
+    <t>Ngày 17.3.24</t>
+  </si>
+  <si>
+    <t>7400B i5/16/256</t>
+  </si>
+  <si>
+    <t>Đã trả ngày 9.3.24</t>
+  </si>
+  <si>
+    <t>Chuyển sang công nợ ngày 28.1</t>
+  </si>
+  <si>
+    <t>Chuyển công nợ ngày 6.1</t>
   </si>
 </sst>
 </file>
@@ -639,15 +655,15 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.1328125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -661,7 +677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>7490</v>
       </c>
@@ -676,7 +692,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -691,7 +707,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>9305</v>
       </c>
@@ -706,7 +722,7 @@
         <v>8500000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -721,7 +737,7 @@
         <v>18500000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -736,7 +752,7 @@
         <v>5800000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -751,7 +767,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -766,7 +782,7 @@
         <v>6200000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -781,7 +797,7 @@
         <v>6700000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" s="10">
         <f>SUM(D2:D9)</f>
         <v>66200000</v>
@@ -790,7 +806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -804,7 +820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -819,7 +835,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D16" s="11">
         <f>SUM(D14:D14)</f>
         <v>200000</v>
@@ -828,7 +844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>5</v>
       </c>
@@ -839,7 +855,7 @@
       </c>
       <c r="E19" s="14"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D21" s="26" t="s">
         <v>29</v>
       </c>
@@ -861,16 +877,16 @@
       <selection sqref="A1:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.1328125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="18.73046875" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -887,7 +903,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>13</v>
       </c>
@@ -903,7 +919,7 @@
       </c>
       <c r="E2" s="19"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
@@ -919,7 +935,7 @@
       </c>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
@@ -935,7 +951,7 @@
       </c>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>16</v>
       </c>
@@ -951,7 +967,7 @@
       </c>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
@@ -967,7 +983,7 @@
       </c>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>18</v>
       </c>
@@ -983,7 +999,7 @@
       </c>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>19</v>
       </c>
@@ -999,7 +1015,7 @@
       </c>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>20</v>
       </c>
@@ -1015,7 +1031,7 @@
       </c>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>21</v>
       </c>
@@ -1031,7 +1047,7 @@
       </c>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="D11" s="10">
         <f>SUM(D2:D10)</f>
@@ -1041,11 +1057,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>4</v>
       </c>
@@ -1060,7 +1076,7 @@
       </c>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>22</v>
       </c>
@@ -1076,7 +1092,7 @@
       </c>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>23</v>
       </c>
@@ -1092,7 +1108,7 @@
       </c>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>26</v>
       </c>
@@ -1108,7 +1124,7 @@
       </c>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>26</v>
       </c>
@@ -1126,7 +1142,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="D18" s="11">
         <f>SUM(D14:D17)</f>
@@ -1136,15 +1152,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="E19" s="19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="E20" s="19"/>
     </row>
-    <row r="21" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>5</v>
       </c>
@@ -1170,22 +1186,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BCEF21-9D1E-48DB-9392-20A8F9275E7E}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.1328125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1202,7 +1218,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>15</v>
       </c>
@@ -1218,7 +1234,7 @@
       </c>
       <c r="E2" s="19"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
@@ -1234,7 +1250,7 @@
       </c>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
@@ -1250,7 +1266,7 @@
       </c>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>18</v>
       </c>
@@ -1266,7 +1282,7 @@
       </c>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>27</v>
       </c>
@@ -1282,10 +1298,10 @@
       </c>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" s="10">
         <f>SUM(D2:D6)</f>
         <v>72950000</v>
@@ -1294,11 +1310,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>4</v>
       </c>
@@ -1313,7 +1329,7 @@
       </c>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>24</v>
       </c>
@@ -1329,7 +1345,7 @@
       </c>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>22</v>
       </c>
@@ -1340,12 +1356,12 @@
         <v>2</v>
       </c>
       <c r="D12" s="8">
-        <f t="shared" ref="D12:D15" si="1">B12*C12</f>
+        <f t="shared" ref="D12:D16" si="1">B12*C12</f>
         <v>500000</v>
       </c>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>28</v>
       </c>
@@ -1361,7 +1377,7 @@
       </c>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>32</v>
       </c>
@@ -1377,7 +1393,7 @@
       </c>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>40</v>
       </c>
@@ -1393,39 +1409,57 @@
       </c>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="18"/>
-      <c r="D16" s="11">
-        <f>SUM(D11:D15)</f>
-        <v>57950000</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="8">
+        <v>30000000</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="1"/>
+        <v>30000000</v>
+      </c>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D17" s="11">
+        <f>SUM(D11:D16)</f>
+        <v>87950000</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="E18" s="19"/>
     </row>
-    <row r="19" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="29" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24">
-        <f>D8-D16</f>
-        <v>15000000</v>
-      </c>
-      <c r="E19" s="25"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24">
+        <f>D8-D17</f>
+        <v>-15000000</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1434,22 +1468,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F92984B-B13F-4671-BC36-F2DAB26D9586}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.1328125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1466,7 +1500,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>16</v>
       </c>
@@ -1482,7 +1516,7 @@
       </c>
       <c r="E2" s="19"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
@@ -1498,7 +1532,7 @@
       </c>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
@@ -1514,7 +1548,7 @@
       </c>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="D5" s="10">
         <f>SUM(D2:D4)</f>
@@ -1524,11 +1558,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>4</v>
       </c>
@@ -1543,7 +1577,7 @@
       </c>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>25</v>
       </c>
@@ -1559,7 +1593,7 @@
       </c>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>22</v>
       </c>
@@ -1570,12 +1604,12 @@
         <v>1</v>
       </c>
       <c r="D9" s="8">
-        <f t="shared" ref="D9:D10" si="1">C9*B9</f>
+        <f t="shared" ref="D9:D11" si="1">C9*B9</f>
         <v>250000</v>
       </c>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>28</v>
       </c>
@@ -1591,39 +1625,59 @@
       </c>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="18"/>
-      <c r="D11" s="11">
-        <f>SUM(D8:D9)</f>
-        <v>550000</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="8">
+        <v>15000000</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="1"/>
+        <v>15000000</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="29" t="s">
+      <c r="D13" s="11">
+        <f>SUM(D8:D11)</f>
+        <v>15750000</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24">
-        <f>D5-D11</f>
-        <v>54050000</v>
-      </c>
-      <c r="E14" s="25"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24">
+        <f>D5-D13</f>
+        <v>38850000</v>
+      </c>
+      <c r="E16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1634,20 +1688,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABE387F-77DA-466B-85F9-C8A9BC91CF5C}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.1328125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="11.73046875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1664,7 +1718,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>33</v>
       </c>
@@ -1680,7 +1734,7 @@
       </c>
       <c r="E2" s="19"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>38</v>
       </c>
@@ -1696,7 +1750,7 @@
       </c>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>39</v>
       </c>
@@ -1712,7 +1766,7 @@
       </c>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="D5" s="10">
         <f>SUM(D2:D4)</f>
@@ -1722,11 +1776,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>4</v>
       </c>
@@ -1741,19 +1795,19 @@
       </c>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="D11" s="11">
         <f>SUM(D8:D9)</f>
@@ -1763,15 +1817,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>5</v>
       </c>
@@ -1780,6 +1834,144 @@
       <c r="D14" s="24">
         <f>D5-D11</f>
         <v>42000000</v>
+      </c>
+      <c r="E14" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B988ED-FC2F-47D6-AD32-A8BAFCBA608F}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="8">
+        <v>5800000</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8">
+        <f t="shared" ref="D2:D4" si="0">B2*C2</f>
+        <v>58000000</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="D5" s="10">
+        <f>SUM(D2:D4)</f>
+        <v>58000000</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="D11" s="11">
+        <f>SUM(D8:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24">
+        <f>D5-D11</f>
+        <v>58000000</v>
       </c>
       <c r="E14" s="25"/>
     </row>

--- a/TDStore/ABac2.xlsx
+++ b/TDStore/ABac2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10.NewPC\01.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E620B34-4E78-4AAA-BFEF-1358E4C1AC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B24D9E7-23EA-43B2-B3EA-98FBE7132D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="3330" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11.12.23" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="28.1.24" sheetId="4" r:id="rId4"/>
     <sheet name="20.2.24" sheetId="5" r:id="rId5"/>
     <sheet name="17.3.24" sheetId="6" r:id="rId6"/>
+    <sheet name="20.3.24" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="53">
   <si>
     <t>Tên</t>
   </si>
@@ -168,6 +169,27 @@
   </si>
   <si>
     <t>Chuyển công nợ ngày 6.1</t>
+  </si>
+  <si>
+    <t>Chuyển khoản ngày 18.3</t>
+  </si>
+  <si>
+    <t>Chuyển sang công nợ ngày 20.2</t>
+  </si>
+  <si>
+    <t>Chuyển công nợ từ ngày 28.1</t>
+  </si>
+  <si>
+    <t>2 pin</t>
+  </si>
+  <si>
+    <t>1 màn</t>
+  </si>
+  <si>
+    <t>7420B i5/16/512</t>
+  </si>
+  <si>
+    <t>Ngày 20.3.24</t>
   </si>
 </sst>
 </file>
@@ -1470,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F92984B-B13F-4671-BC36-F2DAB26D9586}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,7 +1502,7 @@
     <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1604,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="8">
-        <f t="shared" ref="D9:D11" si="1">C9*B9</f>
+        <f t="shared" ref="D9:D12" si="1">C9*B9</f>
         <v>250000</v>
       </c>
       <c r="E9" s="19"/>
@@ -1642,14 +1664,26 @@
       <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="8">
+        <v>80000000</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="1"/>
+        <v>80000000</v>
+      </c>
       <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="D13" s="11">
-        <f>SUM(D8:D11)</f>
-        <v>15750000</v>
+        <f>SUM(D8:D12)</f>
+        <v>95750000</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>3</v>
@@ -1671,9 +1705,11 @@
       <c r="C16" s="23"/>
       <c r="D16" s="24">
         <f>D5-D13</f>
-        <v>38850000</v>
-      </c>
-      <c r="E16" s="25"/>
+        <v>-41150000</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1689,7 +1725,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,8 +1831,20 @@
       </c>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="24">
+        <v>41150000</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <f>C8*B8</f>
+        <v>41150000</v>
+      </c>
       <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1811,7 +1859,7 @@
       <c r="A11" s="18"/>
       <c r="D11" s="11">
         <f>SUM(D8:D9)</f>
-        <v>0</v>
+        <v>41150000</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>3</v>
@@ -1833,7 +1881,7 @@
       <c r="C14" s="23"/>
       <c r="D14" s="24">
         <f>D5-D11</f>
-        <v>42000000</v>
+        <v>850000</v>
       </c>
       <c r="E14" s="25"/>
     </row>
@@ -1851,7 +1899,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1891,7 +1939,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="8">
-        <f t="shared" ref="D2:D4" si="0">B2*C2</f>
+        <f t="shared" ref="D2" si="0">B2*C2</f>
         <v>58000000</v>
       </c>
       <c r="E2" s="19"/>
@@ -1934,6 +1982,158 @@
       <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="8">
+        <v>250000</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8">
+        <f>C8*B8</f>
+        <v>500000</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="D11" s="11">
+        <f>SUM(D8:D9)</f>
+        <v>500000</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24">
+        <f>D5-D11</f>
+        <v>57500000</v>
+      </c>
+      <c r="E14" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514BB4DB-55F3-4BAD-AFB8-182315A864EC}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="8">
+        <v>9900000</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8">
+        <f t="shared" ref="D2" si="0">B2*C2</f>
+        <v>79200000</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="D5" s="10">
+        <f>SUM(D2:D4)</f>
+        <v>79200000</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="E8" s="19"/>
     </row>
@@ -1971,7 +2171,7 @@
       <c r="C14" s="23"/>
       <c r="D14" s="24">
         <f>D5-D11</f>
-        <v>58000000</v>
+        <v>79200000</v>
       </c>
       <c r="E14" s="25"/>
     </row>

--- a/TDStore/ABac2.xlsx
+++ b/TDStore/ABac2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10.NewPC\01.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B24D9E7-23EA-43B2-B3EA-98FBE7132D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C0D41B-EFDD-404D-8EF0-13D14CF440F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2985" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11.12.23" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="57">
   <si>
     <t>Tên</t>
   </si>
@@ -190,6 +190,18 @@
   </si>
   <si>
     <t>Ngày 20.3.24</t>
+  </si>
+  <si>
+    <t>Chuyển khoản ngày 23.3.24</t>
+  </si>
+  <si>
+    <t>Chuyển sang ngày 17.3</t>
+  </si>
+  <si>
+    <t>Chuyển công nợ ngày 20.2.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin </t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1505,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F16"/>
+      <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1724,8 +1736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABE387F-77DA-466B-85F9-C8A9BC91CF5C}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1734,7 +1746,7 @@
     <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1848,7 +1860,19 @@
       <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="8">
+        <v>50000000</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <f>C9*B9</f>
+        <v>50000000</v>
+      </c>
       <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1859,7 +1883,7 @@
       <c r="A11" s="18"/>
       <c r="D11" s="11">
         <f>SUM(D8:D9)</f>
-        <v>41150000</v>
+        <v>91150000</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>3</v>
@@ -1881,9 +1905,11 @@
       <c r="C14" s="23"/>
       <c r="D14" s="24">
         <f>D5-D11</f>
-        <v>850000</v>
-      </c>
-      <c r="E14" s="25"/>
+        <v>-49150000</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2001,17 +2027,39 @@
       <c r="A9" s="18" t="s">
         <v>50</v>
       </c>
+      <c r="B9" s="8">
+        <v>400000</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <f>C9*B9</f>
+        <v>400000</v>
+      </c>
       <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="8">
+        <v>49150000</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <f>C10*B10</f>
+        <v>49150000</v>
+      </c>
       <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="D11" s="11">
-        <f>SUM(D8:D9)</f>
-        <v>500000</v>
+        <f>SUM(D8:D10)</f>
+        <v>50050000</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>3</v>
@@ -2033,7 +2081,7 @@
       <c r="C14" s="23"/>
       <c r="D14" s="24">
         <f>D5-D11</f>
-        <v>57500000</v>
+        <v>7950000</v>
       </c>
       <c r="E14" s="25"/>
     </row>
@@ -2050,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514BB4DB-55F3-4BAD-AFB8-182315A864EC}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,11 +2182,35 @@
       <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="8">
+        <v>200000</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <f>C8*B8</f>
+        <v>200000</v>
+      </c>
       <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="8">
+        <v>250000</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8">
+        <f>C9*B9</f>
+        <v>500000</v>
+      </c>
       <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2149,7 +2221,7 @@
       <c r="A11" s="18"/>
       <c r="D11" s="11">
         <f>SUM(D8:D9)</f>
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>3</v>
@@ -2171,7 +2243,7 @@
       <c r="C14" s="23"/>
       <c r="D14" s="24">
         <f>D5-D11</f>
-        <v>79200000</v>
+        <v>78500000</v>
       </c>
       <c r="E14" s="25"/>
     </row>
